--- a/報名資訊/宣導會名單_錄取.xlsx
+++ b/報名資訊/宣導會名單_錄取.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c6b1caa79e56bf/GitHub/test2/報名資訊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D39821FA-E518-4C1B-9B31-FCCBB82E231B}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D7219E-1F60-47BC-8667-3102AAF3A89D}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1200" windowWidth="21600" windowHeight="11835" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
+    <workbookView xWindow="-27135" yWindow="2010" windowWidth="21600" windowHeight="11835" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
   </bookViews>
   <sheets>
     <sheet name="錄取名單" sheetId="1" r:id="rId1"/>
@@ -5654,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D234" sqref="D234"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12955,7 +12955,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K228" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E219" r:id="rId1" xr:uid="{3E58449C-C349-4080-9BBF-D5DA0307E6AA}"/>

--- a/報名資訊/宣導會名單_錄取.xlsx
+++ b/報名資訊/宣導會名單_錄取.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c6b1caa79e56bf/GitHub/test2/報名資訊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D7219E-1F60-47BC-8667-3102AAF3A89D}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{206421C0-28A6-4850-9182-277B12482C21}"/>
   <bookViews>
-    <workbookView xWindow="-27135" yWindow="2010" windowWidth="21600" windowHeight="11835" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
   </bookViews>
   <sheets>
     <sheet name="錄取名單" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="697">
   <si>
     <t>優先排除</t>
   </si>
@@ -2249,12 +2249,28 @@
     <t>臨時報名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>實際編組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午簽到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午簽退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臨時取消報名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2334,6 +2350,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2371,7 +2394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,6 +2412,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2407,6 +2431,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5652,23 +5680,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:O230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="4"/>
-    <col min="11" max="11" width="23.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="4"/>
+    <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="15" max="15" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15" ht="14.4">
       <c r="A1" s="9" t="s">
         <v>688</v>
       </c>
@@ -5702,8 +5731,20 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="M1" t="s">
+        <v>694</v>
+      </c>
+      <c r="N1" t="s">
+        <v>695</v>
+      </c>
+      <c r="O1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="B2" t="b">
         <v>0</v>
       </c>
@@ -5737,7 +5778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:15">
       <c r="B3" t="b">
         <v>0</v>
       </c>
@@ -5771,7 +5812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="B4" t="b">
         <v>0</v>
       </c>
@@ -5805,7 +5846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="B5" t="b">
         <v>0</v>
       </c>
@@ -5839,7 +5880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="B6" t="b">
         <v>0</v>
       </c>
@@ -5873,7 +5914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="B7" t="b">
         <v>0</v>
       </c>
@@ -5907,7 +5948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15">
       <c r="B8" t="b">
         <v>0</v>
       </c>
@@ -5941,7 +5982,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:15">
       <c r="B9" t="b">
         <v>0</v>
       </c>
@@ -5975,7 +6016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:15">
       <c r="B10" t="b">
         <v>0</v>
       </c>
@@ -6009,7 +6050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:15">
       <c r="B11" t="b">
         <v>0</v>
       </c>
@@ -6043,7 +6084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:15">
       <c r="B12" t="b">
         <v>0</v>
       </c>
@@ -6077,7 +6118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:15">
       <c r="B13" t="b">
         <v>0</v>
       </c>
@@ -6111,7 +6152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:15">
       <c r="B14" t="b">
         <v>0</v>
       </c>
@@ -6145,7 +6186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:15">
       <c r="B15" t="b">
         <v>0</v>
       </c>
@@ -6179,7 +6220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:15">
       <c r="B16" t="b">
         <v>0</v>
       </c>
@@ -6754,7 +6795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" ht="14.4">
       <c r="B33" t="b">
         <v>0</v>
       </c>
@@ -12972,11 +13013,11 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/報名資訊/宣導會名單_錄取.xlsx
+++ b/報名資訊/宣導會名單_錄取.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c6b1caa79e56bf/GitHub/test2/報名資訊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{206421C0-28A6-4850-9182-277B12482C21}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0DE90E-9145-48B8-9F63-1CDC358E65F3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
   </bookViews>
   <sheets>
     <sheet name="錄取名單" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="693">
   <si>
     <t>優先排除</t>
   </si>
@@ -2246,23 +2246,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>臨時報名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際編組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午簽到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午簽退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臨時取消報名</t>
+    <t>演練</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2270,7 +2254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2350,13 +2334,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2412,7 +2389,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2431,10 +2408,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5680,24 +5653,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
-  <dimension ref="A1:O230"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="4"/>
-    <col min="11" max="11" width="23.875" customWidth="1"/>
-    <col min="15" max="15" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="4"/>
+    <col min="11" max="11" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>688</v>
       </c>
@@ -5732,19 +5704,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="M1" t="s">
-        <v>694</v>
-      </c>
-      <c r="N1" t="s">
-        <v>695</v>
-      </c>
-      <c r="O1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" t="b">
         <v>0</v>
       </c>
@@ -5778,7 +5741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:12">
       <c r="B3" t="b">
         <v>0</v>
       </c>
@@ -5812,7 +5775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:12">
       <c r="B4" t="b">
         <v>0</v>
       </c>
@@ -5846,7 +5809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:12">
       <c r="B5" t="b">
         <v>0</v>
       </c>
@@ -5880,7 +5843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:12">
       <c r="B6" t="b">
         <v>0</v>
       </c>
@@ -5914,7 +5877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:12">
       <c r="B7" t="b">
         <v>0</v>
       </c>
@@ -5948,7 +5911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:12">
       <c r="B8" t="b">
         <v>0</v>
       </c>
@@ -5982,7 +5945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:12">
       <c r="B9" t="b">
         <v>0</v>
       </c>
@@ -6016,7 +5979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:12">
       <c r="B10" t="b">
         <v>0</v>
       </c>
@@ -6050,7 +6013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:12">
       <c r="B11" t="b">
         <v>0</v>
       </c>
@@ -6084,7 +6047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:12">
       <c r="B12" t="b">
         <v>0</v>
       </c>
@@ -6118,7 +6081,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:12">
       <c r="B13" t="b">
         <v>0</v>
       </c>
@@ -6152,7 +6115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:12">
       <c r="B14" t="b">
         <v>0</v>
       </c>
@@ -6186,7 +6149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:12">
       <c r="B15" t="b">
         <v>0</v>
       </c>
@@ -6220,7 +6183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:12">
       <c r="B16" t="b">
         <v>0</v>
       </c>
@@ -6795,7 +6758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="14.4">
+    <row r="33" spans="2:11">
       <c r="B33" t="b">
         <v>0</v>
       </c>
@@ -12800,7 +12763,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="2:12">
+    <row r="225" spans="2:11">
       <c r="B225" t="b">
         <v>1</v>
       </c>
@@ -12831,7 +12794,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="226" spans="2:12">
+    <row r="226" spans="2:11">
       <c r="B226" t="b">
         <v>0</v>
       </c>
@@ -12865,7 +12828,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="227" spans="2:12">
+    <row r="227" spans="2:11">
       <c r="B227" t="b">
         <v>0</v>
       </c>
@@ -12899,7 +12862,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="228" spans="2:12">
+    <row r="228" spans="2:11">
       <c r="B228" t="b">
         <v>1</v>
       </c>
@@ -12933,7 +12896,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="2:12">
+    <row r="229" spans="2:11">
       <c r="B229" t="b">
         <v>0</v>
       </c>
@@ -12967,7 +12930,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="230" spans="2:12">
+    <row r="230" spans="2:11">
       <c r="C230" s="10" t="s">
         <v>160</v>
       </c>
@@ -12990,9 +12953,6 @@
       <c r="I230" t="str">
         <f>LEFT(D230,2)&amp;"*公司"</f>
         <v>台灣*公司</v>
-      </c>
-      <c r="L230" t="s">
-        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -13013,11 +12973,11 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/報名資訊/宣導會名單_錄取.xlsx
+++ b/報名資訊/宣導會名單_錄取.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c6b1caa79e56bf/GitHub/test2/報名資訊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE0DE90E-9145-48B8-9F63-1CDC358E65F3}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A4BA467-3BC2-4D48-BD63-43297CF4D35A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
   </bookViews>
   <sheets>
     <sheet name="錄取名單" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">錄取名單!$B$1:$K$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">錄取名單!$A$1:$L$229</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="693">
   <si>
     <t>優先排除</t>
   </si>
@@ -2371,7 +2371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,7 +2389,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2410,10 +2409,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Peter Ho" refreshedDate="45866.547868634261" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="228" xr:uid="{389BF630-0397-4E4A-AF3E-D20CAA34CBF2}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:K228" sheet="錄取名單"/>
+    <worksheetSource ref="B1:K227" sheet="錄取名單"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="優先排除" numFmtId="0">
@@ -5653,23 +5656,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="4"/>
-    <col min="11" max="11" width="23.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="4"/>
+    <col min="11" max="11" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="14.4">
       <c r="A1" s="9" t="s">
         <v>688</v>
       </c>
@@ -5703,7 +5706,7 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="1" t="s">
         <v>692</v>
       </c>
     </row>
@@ -6758,7 +6761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" ht="14.4">
       <c r="B33" t="b">
         <v>0</v>
       </c>
@@ -9768,11 +9771,11 @@
         <v>14</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" ref="H129:H192" si="4">REPLACE(C129,LEN(C129)-1,1,"O")</f>
+        <f t="shared" ref="H129:H191" si="4">REPLACE(C129,LEN(C129)-1,1,"O")</f>
         <v>張O玟</v>
       </c>
       <c r="I129" t="str">
-        <f t="shared" ref="I129:I192" si="5">LEFT(D129,2)&amp;"*公司"</f>
+        <f t="shared" ref="I129:I191" si="5">LEFT(D129,2)&amp;"*公司"</f>
         <v>尚晧*公司</v>
       </c>
       <c r="J129" s="4">
@@ -10987,33 +10990,24 @@
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D169" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E169" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F169" t="s">
         <v>378</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H169" t="str">
         <f t="shared" si="4"/>
-        <v>李O澤</v>
+        <v>張O龍</v>
       </c>
       <c r="I169" t="str">
         <f t="shared" si="5"/>
-        <v>承鋒*公司</v>
-      </c>
-      <c r="J169" s="4">
-        <v>8</v>
-      </c>
-      <c r="K169" t="s">
-        <v>41</v>
+        <v>科森*公司</v>
       </c>
     </row>
     <row r="170" spans="2:11">
@@ -11021,24 +11015,24 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D170" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E170" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F170" t="s">
         <v>378</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="4"/>
-        <v>張O龍</v>
+        <v>黃O家</v>
       </c>
       <c r="I170" t="str">
         <f t="shared" si="5"/>
-        <v>科森*公司</v>
+        <v>中聯*公司</v>
       </c>
     </row>
     <row r="171" spans="2:11">
@@ -11046,24 +11040,33 @@
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D171" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E171" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F171" t="s">
         <v>378</v>
       </c>
+      <c r="G171" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H171" t="str">
         <f t="shared" si="4"/>
-        <v>黃O家</v>
+        <v>巫O誌</v>
       </c>
       <c r="I171" t="str">
         <f t="shared" si="5"/>
-        <v>中聯*公司</v>
+        <v>中華*公司</v>
+      </c>
+      <c r="J171" s="4">
+        <v>9</v>
+      </c>
+      <c r="K171" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="2:11">
@@ -11071,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D172" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E172" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F172" t="s">
         <v>378</v>
@@ -11087,11 +11090,11 @@
       </c>
       <c r="H172" t="str">
         <f t="shared" si="4"/>
-        <v>巫O誌</v>
+        <v>廖O玲</v>
       </c>
       <c r="I172" t="str">
         <f t="shared" si="5"/>
-        <v>中華*公司</v>
+        <v>旻成*公司</v>
       </c>
       <c r="J172" s="4">
         <v>9</v>
@@ -11105,33 +11108,24 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D173" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E173" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F173" t="s">
         <v>378</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H173" t="str">
         <f t="shared" si="4"/>
-        <v>廖O玲</v>
+        <v>曾O純</v>
       </c>
       <c r="I173" t="str">
         <f t="shared" si="5"/>
-        <v>旻成*公司</v>
-      </c>
-      <c r="J173" s="4">
-        <v>9</v>
-      </c>
-      <c r="K173" t="s">
-        <v>57</v>
+        <v>永進*公司</v>
       </c>
     </row>
     <row r="174" spans="2:11">
@@ -11139,24 +11133,24 @@
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D174" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E174" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F174" t="s">
         <v>378</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="4"/>
-        <v>曾O純</v>
+        <v>林O琪</v>
       </c>
       <c r="I174" t="str">
         <f t="shared" si="5"/>
-        <v>永進*公司</v>
+        <v>台達*公司</v>
       </c>
     </row>
     <row r="175" spans="2:11">
@@ -11164,24 +11158,33 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D175" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="E175" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F175" t="s">
         <v>378</v>
       </c>
+      <c r="G175" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H175" t="str">
         <f t="shared" si="4"/>
-        <v>林O琪</v>
+        <v>林O源</v>
       </c>
       <c r="I175" t="str">
         <f t="shared" si="5"/>
-        <v>台達*公司</v>
+        <v>中科*公司</v>
+      </c>
+      <c r="J175" s="4">
+        <v>9</v>
+      </c>
+      <c r="K175" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="2:11">
@@ -11189,13 +11192,13 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D176" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E176" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F176" t="s">
         <v>378</v>
@@ -11205,11 +11208,11 @@
       </c>
       <c r="H176" t="str">
         <f t="shared" si="4"/>
-        <v>林O源</v>
+        <v>王O卿</v>
       </c>
       <c r="I176" t="str">
         <f t="shared" si="5"/>
-        <v>中科*公司</v>
+        <v>宇隆*公司</v>
       </c>
       <c r="J176" s="4">
         <v>9</v>
@@ -11223,33 +11226,24 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D177" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E177" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F177" t="s">
         <v>378</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H177" t="str">
         <f t="shared" si="4"/>
-        <v>王O卿</v>
+        <v>陳O彰</v>
       </c>
       <c r="I177" t="str">
         <f t="shared" si="5"/>
-        <v>宇隆*公司</v>
-      </c>
-      <c r="J177" s="4">
-        <v>9</v>
-      </c>
-      <c r="K177" t="s">
-        <v>57</v>
+        <v>日本*公司</v>
       </c>
     </row>
     <row r="178" spans="2:11">
@@ -11257,24 +11251,24 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D178" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E178" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F178" t="s">
         <v>378</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="4"/>
-        <v>陳O彰</v>
+        <v>楊O榮</v>
       </c>
       <c r="I178" t="str">
         <f t="shared" si="5"/>
-        <v>日本*公司</v>
+        <v xml:space="preserve">  *公司</v>
       </c>
     </row>
     <row r="179" spans="2:11">
@@ -11282,24 +11276,33 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D179" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E179" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F179" t="s">
         <v>378</v>
       </c>
+      <c r="G179" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H179" t="str">
         <f t="shared" si="4"/>
-        <v>楊O榮</v>
+        <v>李O源</v>
       </c>
       <c r="I179" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">  *公司</v>
+        <v>固滿*公司</v>
+      </c>
+      <c r="J179" s="4">
+        <v>9</v>
+      </c>
+      <c r="K179" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="2:11">
@@ -11307,13 +11310,13 @@
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D180" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E180" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F180" t="s">
         <v>378</v>
@@ -11323,17 +11326,17 @@
       </c>
       <c r="H180" t="str">
         <f t="shared" si="4"/>
-        <v>李O源</v>
+        <v>曾O群</v>
       </c>
       <c r="I180" t="str">
         <f t="shared" si="5"/>
-        <v>固滿*公司</v>
+        <v>東麗*公司</v>
       </c>
       <c r="J180" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K180" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="181" spans="2:11">
@@ -11341,13 +11344,13 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D181" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E181" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F181" t="s">
         <v>378</v>
@@ -11357,11 +11360,11 @@
       </c>
       <c r="H181" t="str">
         <f t="shared" si="4"/>
-        <v>曾O群</v>
+        <v>賴O均</v>
       </c>
       <c r="I181" t="str">
         <f t="shared" si="5"/>
-        <v>東麗*公司</v>
+        <v>矽品*公司</v>
       </c>
       <c r="J181" s="4">
         <v>10</v>
@@ -11375,33 +11378,24 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D182" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E182" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F182" t="s">
         <v>378</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H182" t="str">
         <f t="shared" si="4"/>
-        <v>賴O均</v>
+        <v>陳O玲</v>
       </c>
       <c r="I182" t="str">
         <f t="shared" si="5"/>
-        <v>矽品*公司</v>
-      </c>
-      <c r="J182" s="4">
-        <v>10</v>
-      </c>
-      <c r="K182" t="s">
-        <v>72</v>
+        <v>維熹*公司</v>
       </c>
     </row>
     <row r="183" spans="2:11">
@@ -11409,24 +11403,33 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D183" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E183" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F183" t="s">
         <v>378</v>
       </c>
+      <c r="G183" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H183" t="str">
         <f t="shared" si="4"/>
-        <v>陳O玲</v>
+        <v>蘇O賢</v>
       </c>
       <c r="I183" t="str">
         <f t="shared" si="5"/>
-        <v>維熹*公司</v>
+        <v>台灣*公司</v>
+      </c>
+      <c r="J183" s="4">
+        <v>10</v>
+      </c>
+      <c r="K183" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="2:11">
@@ -11434,33 +11437,24 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D184" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E184" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F184" t="s">
         <v>378</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H184" t="str">
         <f t="shared" si="4"/>
-        <v>蘇O賢</v>
+        <v>余O丹</v>
       </c>
       <c r="I184" t="str">
         <f t="shared" si="5"/>
-        <v>台灣*公司</v>
-      </c>
-      <c r="J184" s="4">
-        <v>10</v>
-      </c>
-      <c r="K184" t="s">
-        <v>72</v>
+        <v>昭勝*公司</v>
       </c>
     </row>
     <row r="185" spans="2:11">
@@ -11468,24 +11462,33 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D185" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E185" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F185" t="s">
         <v>378</v>
       </c>
+      <c r="G185" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="H185" t="str">
         <f t="shared" si="4"/>
-        <v>余O丹</v>
+        <v>羅O怡</v>
       </c>
       <c r="I185" t="str">
         <f t="shared" si="5"/>
-        <v>昭勝*公司</v>
+        <v>中台*公司</v>
+      </c>
+      <c r="J185" s="4">
+        <v>10</v>
+      </c>
+      <c r="K185" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="2:11">
@@ -11493,13 +11496,13 @@
         <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D186" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="E186" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="F186" t="s">
         <v>378</v>
@@ -11509,11 +11512,11 @@
       </c>
       <c r="H186" t="str">
         <f t="shared" si="4"/>
-        <v>羅O怡</v>
+        <v>林O鋒</v>
       </c>
       <c r="I186" t="str">
         <f t="shared" si="5"/>
-        <v>中台*公司</v>
+        <v>承鋒*公司</v>
       </c>
       <c r="J186" s="4">
         <v>10</v>
@@ -11537,9 +11540,6 @@
       </c>
       <c r="F187" t="s">
         <v>378</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="4"/>
@@ -11549,36 +11549,30 @@
         <f t="shared" si="5"/>
         <v>承鋒*公司</v>
       </c>
-      <c r="J187" s="4">
-        <v>10</v>
-      </c>
-      <c r="K187" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="188" spans="2:11">
       <c r="B188" t="b">
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D188" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
       <c r="E188" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="F188" t="s">
         <v>378</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="4"/>
-        <v>林O鋒</v>
+        <v>江O明</v>
       </c>
       <c r="I188" t="str">
         <f t="shared" si="5"/>
-        <v>承鋒*公司</v>
+        <v>武漢*公司</v>
       </c>
     </row>
     <row r="189" spans="2:11">
@@ -11586,20 +11580,20 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="D189" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="E189" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F189" t="s">
         <v>378</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="4"/>
-        <v>江O明</v>
+        <v>唐O真</v>
       </c>
       <c r="I189" t="str">
         <f t="shared" si="5"/>
@@ -11608,27 +11602,33 @@
     </row>
     <row r="190" spans="2:11">
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>578</v>
-      </c>
-      <c r="D190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E190" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>583</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="4"/>
-        <v>唐O真</v>
+        <v>黃O傑</v>
       </c>
       <c r="I190" t="str">
         <f t="shared" si="5"/>
-        <v>武漢*公司</v>
+        <v>*公司</v>
+      </c>
+      <c r="J190" s="4">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="191" spans="2:11">
@@ -11636,10 +11636,10 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E191" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F191" t="s">
         <v>583</v>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="H191" t="str">
         <f t="shared" si="4"/>
-        <v>黃O傑</v>
+        <v>O珣</v>
       </c>
       <c r="I191" t="str">
         <f t="shared" si="5"/>
@@ -11664,13 +11664,16 @@
     </row>
     <row r="192" spans="2:11">
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="D192" t="s">
+        <v>587</v>
       </c>
       <c r="E192" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F192" t="s">
         <v>583</v>
@@ -11679,12 +11682,12 @@
         <v>14</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="4"/>
-        <v>O珣</v>
+        <f t="shared" ref="H192:H227" si="6">REPLACE(C192,LEN(C192)-1,1,"O")</f>
+        <v>阮O慈</v>
       </c>
       <c r="I192" t="str">
-        <f t="shared" si="5"/>
-        <v>*公司</v>
+        <f t="shared" ref="I192:I227" si="7">LEFT(D192,2)&amp;"*公司"</f>
+        <v>雙鍵*公司</v>
       </c>
       <c r="J192" s="4">
         <v>1</v>
@@ -11695,16 +11698,13 @@
     </row>
     <row r="193" spans="2:11">
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>586</v>
-      </c>
-      <c r="D193" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E193" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F193" t="s">
         <v>583</v>
@@ -11713,12 +11713,12 @@
         <v>14</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" ref="H193:H228" si="6">REPLACE(C193,LEN(C193)-1,1,"O")</f>
-        <v>阮O慈</v>
+        <f t="shared" si="6"/>
+        <v>馬O逸</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" ref="I193:I228" si="7">LEFT(D193,2)&amp;"*公司"</f>
-        <v>雙鍵*公司</v>
+        <f t="shared" si="7"/>
+        <v>*公司</v>
       </c>
       <c r="J193" s="4">
         <v>1</v>
@@ -11729,13 +11729,16 @@
     </row>
     <row r="194" spans="2:11">
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+      <c r="D194" t="s">
+        <v>592</v>
       </c>
       <c r="E194" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F194" t="s">
         <v>583</v>
@@ -11745,17 +11748,17 @@
       </c>
       <c r="H194" t="str">
         <f t="shared" si="6"/>
-        <v>馬O逸</v>
+        <v>周O臺</v>
       </c>
       <c r="I194" t="str">
         <f t="shared" si="7"/>
-        <v>*公司</v>
+        <v>亞洲*公司</v>
       </c>
       <c r="J194" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K194" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="2:11">
@@ -11763,13 +11766,13 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D195" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E195" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F195" t="s">
         <v>583</v>
@@ -11779,11 +11782,11 @@
       </c>
       <c r="H195" t="str">
         <f t="shared" si="6"/>
-        <v>周O臺</v>
+        <v>黃O教</v>
       </c>
       <c r="I195" t="str">
         <f t="shared" si="7"/>
-        <v>亞洲*公司</v>
+        <v>杜風*公司</v>
       </c>
       <c r="J195" s="4">
         <v>2</v>
@@ -11794,16 +11797,13 @@
     </row>
     <row r="196" spans="2:11">
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>594</v>
-      </c>
-      <c r="D196" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E196" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F196" t="s">
         <v>583</v>
@@ -11813,11 +11813,11 @@
       </c>
       <c r="H196" t="str">
         <f t="shared" si="6"/>
-        <v>黃O教</v>
+        <v>陳O秀</v>
       </c>
       <c r="I196" t="str">
         <f t="shared" si="7"/>
-        <v>杜風*公司</v>
+        <v>*公司</v>
       </c>
       <c r="J196" s="4">
         <v>2</v>
@@ -11831,10 +11831,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E197" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F197" t="s">
         <v>583</v>
@@ -11844,7 +11844,7 @@
       </c>
       <c r="H197" t="str">
         <f t="shared" si="6"/>
-        <v>陳O秀</v>
+        <v>游O妤</v>
       </c>
       <c r="I197" t="str">
         <f t="shared" si="7"/>
@@ -11859,13 +11859,16 @@
     </row>
     <row r="198" spans="2:11">
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>599</v>
+        <v>601</v>
+      </c>
+      <c r="D198" t="s">
+        <v>602</v>
       </c>
       <c r="E198" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F198" t="s">
         <v>583</v>
@@ -11875,17 +11878,17 @@
       </c>
       <c r="H198" t="str">
         <f t="shared" si="6"/>
-        <v>游O妤</v>
+        <v>游O凱</v>
       </c>
       <c r="I198" t="str">
         <f t="shared" si="7"/>
-        <v>*公司</v>
+        <v>達爾*公司</v>
       </c>
       <c r="J198" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K198" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="2:11">
@@ -11893,13 +11896,13 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D199" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E199" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F199" t="s">
         <v>583</v>
@@ -11909,11 +11912,11 @@
       </c>
       <c r="H199" t="str">
         <f t="shared" si="6"/>
-        <v>游O凱</v>
+        <v>張O芸</v>
       </c>
       <c r="I199" t="str">
         <f t="shared" si="7"/>
-        <v>達爾*公司</v>
+        <v>YF*公司</v>
       </c>
       <c r="J199" s="4">
         <v>3</v>
@@ -11927,13 +11930,13 @@
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D200" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E200" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F200" t="s">
         <v>583</v>
@@ -11943,11 +11946,11 @@
       </c>
       <c r="H200" t="str">
         <f t="shared" si="6"/>
-        <v>張O芸</v>
+        <v>吳O儀</v>
       </c>
       <c r="I200" t="str">
         <f t="shared" si="7"/>
-        <v>YF*公司</v>
+        <v>中國*公司</v>
       </c>
       <c r="J200" s="4">
         <v>3</v>
@@ -11958,16 +11961,13 @@
     </row>
     <row r="201" spans="2:11">
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>607</v>
-      </c>
-      <c r="D201" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E201" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F201" t="s">
         <v>583</v>
@@ -11977,11 +11977,11 @@
       </c>
       <c r="H201" t="str">
         <f t="shared" si="6"/>
-        <v>吳O儀</v>
+        <v>黃O箖</v>
       </c>
       <c r="I201" t="str">
         <f t="shared" si="7"/>
-        <v>中國*公司</v>
+        <v>*公司</v>
       </c>
       <c r="J201" s="4">
         <v>3</v>
@@ -11992,13 +11992,16 @@
     </row>
     <row r="202" spans="2:11">
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>610</v>
+        <v>612</v>
+      </c>
+      <c r="D202" t="s">
+        <v>613</v>
       </c>
       <c r="E202" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F202" t="s">
         <v>583</v>
@@ -12008,17 +12011,17 @@
       </c>
       <c r="H202" t="str">
         <f t="shared" si="6"/>
-        <v>黃O箖</v>
+        <v>洪O淳</v>
       </c>
       <c r="I202" t="str">
         <f t="shared" si="7"/>
-        <v>*公司</v>
+        <v>四維*公司</v>
       </c>
       <c r="J202" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K202" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="2:11">
@@ -12026,13 +12029,13 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D203" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E203" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F203" t="s">
         <v>583</v>
@@ -12042,11 +12045,11 @@
       </c>
       <c r="H203" t="str">
         <f t="shared" si="6"/>
-        <v>洪O淳</v>
+        <v>蔡O如</v>
       </c>
       <c r="I203" t="str">
         <f t="shared" si="7"/>
-        <v>四維*公司</v>
+        <v>偉赫*公司</v>
       </c>
       <c r="J203" s="4">
         <v>4</v>
@@ -12057,16 +12060,13 @@
     </row>
     <row r="204" spans="2:11">
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>615</v>
-      </c>
-      <c r="D204" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E204" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F204" t="s">
         <v>583</v>
@@ -12076,11 +12076,11 @@
       </c>
       <c r="H204" t="str">
         <f t="shared" si="6"/>
-        <v>蔡O如</v>
+        <v>顏O茹</v>
       </c>
       <c r="I204" t="str">
         <f t="shared" si="7"/>
-        <v>偉赫*公司</v>
+        <v>*公司</v>
       </c>
       <c r="J204" s="4">
         <v>4</v>
@@ -12091,13 +12091,16 @@
     </row>
     <row r="205" spans="2:11">
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>618</v>
+        <v>620</v>
+      </c>
+      <c r="D205" t="s">
+        <v>621</v>
       </c>
       <c r="E205" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F205" t="s">
         <v>583</v>
@@ -12107,11 +12110,11 @@
       </c>
       <c r="H205" t="str">
         <f t="shared" si="6"/>
-        <v>顏O茹</v>
+        <v>葉O昇</v>
       </c>
       <c r="I205" t="str">
         <f t="shared" si="7"/>
-        <v>*公司</v>
+        <v>信實*公司</v>
       </c>
       <c r="J205" s="4">
         <v>4</v>
@@ -12125,13 +12128,13 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D206" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E206" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F206" t="s">
         <v>583</v>
@@ -12141,17 +12144,17 @@
       </c>
       <c r="H206" t="str">
         <f t="shared" si="6"/>
-        <v>葉O昇</v>
+        <v>郭O濠</v>
       </c>
       <c r="I206" t="str">
         <f t="shared" si="7"/>
-        <v>信實*公司</v>
+        <v>欣訊*公司</v>
       </c>
       <c r="J206" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K206" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207" spans="2:11">
@@ -12159,13 +12162,13 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D207" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E207" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F207" t="s">
         <v>583</v>
@@ -12175,11 +12178,11 @@
       </c>
       <c r="H207" t="str">
         <f t="shared" si="6"/>
-        <v>郭O濠</v>
+        <v>王O新</v>
       </c>
       <c r="I207" t="str">
         <f t="shared" si="7"/>
-        <v>欣訊*公司</v>
+        <v>忠明*公司</v>
       </c>
       <c r="J207" s="4">
         <v>5</v>
@@ -12193,13 +12196,13 @@
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D208" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E208" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F208" t="s">
         <v>583</v>
@@ -12209,11 +12212,11 @@
       </c>
       <c r="H208" t="str">
         <f t="shared" si="6"/>
-        <v>王O新</v>
+        <v>李O節</v>
       </c>
       <c r="I208" t="str">
         <f t="shared" si="7"/>
-        <v>忠明*公司</v>
+        <v>大智*公司</v>
       </c>
       <c r="J208" s="4">
         <v>5</v>
@@ -12227,13 +12230,13 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D209" t="s">
-        <v>630</v>
+        <v>509</v>
       </c>
       <c r="E209" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F209" t="s">
         <v>583</v>
@@ -12243,11 +12246,11 @@
       </c>
       <c r="H209" t="str">
         <f t="shared" si="6"/>
-        <v>李O節</v>
+        <v>陳O圍</v>
       </c>
       <c r="I209" t="str">
         <f t="shared" si="7"/>
-        <v>大智*公司</v>
+        <v>正隆*公司</v>
       </c>
       <c r="J209" s="4">
         <v>5</v>
@@ -12261,13 +12264,13 @@
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D210" t="s">
-        <v>509</v>
+        <v>337</v>
       </c>
       <c r="E210" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F210" t="s">
         <v>583</v>
@@ -12277,17 +12280,17 @@
       </c>
       <c r="H210" t="str">
         <f t="shared" si="6"/>
-        <v>陳O圍</v>
+        <v>黃O綺</v>
       </c>
       <c r="I210" t="str">
         <f t="shared" si="7"/>
-        <v>正隆*公司</v>
+        <v>聯華*公司</v>
       </c>
       <c r="J210" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K210" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211" spans="2:11">
@@ -12295,13 +12298,13 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D211" t="s">
-        <v>337</v>
+        <v>637</v>
       </c>
       <c r="E211" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F211" t="s">
         <v>583</v>
@@ -12311,11 +12314,11 @@
       </c>
       <c r="H211" t="str">
         <f t="shared" si="6"/>
-        <v>黃O綺</v>
+        <v>陳O琀</v>
       </c>
       <c r="I211" t="str">
         <f t="shared" si="7"/>
-        <v>聯華*公司</v>
+        <v>佳能*公司</v>
       </c>
       <c r="J211" s="4">
         <v>6</v>
@@ -12329,13 +12332,13 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D212" t="s">
-        <v>637</v>
+        <v>509</v>
       </c>
       <c r="E212" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F212" t="s">
         <v>583</v>
@@ -12345,11 +12348,11 @@
       </c>
       <c r="H212" t="str">
         <f t="shared" si="6"/>
-        <v>陳O琀</v>
+        <v>鄭O弦</v>
       </c>
       <c r="I212" t="str">
         <f t="shared" si="7"/>
-        <v>佳能*公司</v>
+        <v>正隆*公司</v>
       </c>
       <c r="J212" s="4">
         <v>6</v>
@@ -12363,13 +12366,13 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D213" t="s">
-        <v>509</v>
+        <v>642</v>
       </c>
       <c r="E213" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F213" t="s">
         <v>583</v>
@@ -12379,11 +12382,11 @@
       </c>
       <c r="H213" t="str">
         <f t="shared" si="6"/>
-        <v>鄭O弦</v>
+        <v>孫O亮</v>
       </c>
       <c r="I213" t="str">
         <f t="shared" si="7"/>
-        <v>正隆*公司</v>
+        <v>神通*公司</v>
       </c>
       <c r="J213" s="4">
         <v>6</v>
@@ -12397,13 +12400,13 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D214" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E214" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="F214" t="s">
         <v>583</v>
@@ -12413,17 +12416,17 @@
       </c>
       <c r="H214" t="str">
         <f t="shared" si="6"/>
-        <v>孫O亮</v>
+        <v>陳O霖</v>
       </c>
       <c r="I214" t="str">
         <f t="shared" si="7"/>
-        <v>神通*公司</v>
+        <v>高逸*公司</v>
       </c>
       <c r="J214" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K214" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215" spans="2:11">
@@ -12431,13 +12434,13 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D215" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E215" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F215" t="s">
         <v>583</v>
@@ -12447,11 +12450,11 @@
       </c>
       <c r="H215" t="str">
         <f t="shared" si="6"/>
-        <v>陳O霖</v>
+        <v>劉O蓮</v>
       </c>
       <c r="I215" t="str">
         <f t="shared" si="7"/>
-        <v>高逸*公司</v>
+        <v>智弘*公司</v>
       </c>
       <c r="J215" s="4">
         <v>7</v>
@@ -12465,13 +12468,13 @@
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D216" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E216" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F216" t="s">
         <v>583</v>
@@ -12481,11 +12484,11 @@
       </c>
       <c r="H216" t="str">
         <f t="shared" si="6"/>
-        <v>劉O蓮</v>
+        <v>游O袿</v>
       </c>
       <c r="I216" t="str">
         <f t="shared" si="7"/>
-        <v>智弘*公司</v>
+        <v>瑞芳*公司</v>
       </c>
       <c r="J216" s="4">
         <v>7</v>
@@ -12499,13 +12502,13 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="D217" t="s">
-        <v>651</v>
+        <v>425</v>
       </c>
       <c r="E217" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F217" t="s">
         <v>583</v>
@@ -12515,11 +12518,11 @@
       </c>
       <c r="H217" t="str">
         <f t="shared" si="6"/>
-        <v>游O袿</v>
+        <v>黃O琪</v>
       </c>
       <c r="I217" t="str">
         <f t="shared" si="7"/>
-        <v>瑞芳*公司</v>
+        <v>富昇*公司</v>
       </c>
       <c r="J217" s="4">
         <v>7</v>
@@ -12533,27 +12536,27 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="D218" t="s">
-        <v>425</v>
-      </c>
-      <c r="E218" t="s">
-        <v>654</v>
+        <v>679</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>680</v>
       </c>
       <c r="F218" t="s">
         <v>583</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>14</v>
+        <v>678</v>
       </c>
       <c r="H218" t="str">
-        <f t="shared" si="6"/>
-        <v>黃O琪</v>
+        <f>REPLACE(C218,LEN(C218)-1,1,"O")</f>
+        <v>劉O雯</v>
       </c>
       <c r="I218" t="str">
-        <f t="shared" si="7"/>
-        <v>富昇*公司</v>
+        <f>LEFT(D218,2)&amp;"*公司"</f>
+        <v>國家*公司</v>
       </c>
       <c r="J218" s="4">
         <v>7</v>
@@ -12567,47 +12570,44 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="D219" t="s">
-        <v>679</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>680</v>
+        <v>656</v>
+      </c>
+      <c r="E219" t="s">
+        <v>657</v>
       </c>
       <c r="F219" t="s">
         <v>583</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>678</v>
+        <v>14</v>
       </c>
       <c r="H219" t="str">
-        <f>REPLACE(C219,LEN(C219)-1,1,"O")</f>
-        <v>劉O雯</v>
+        <f t="shared" si="6"/>
+        <v>蕭O淳</v>
       </c>
       <c r="I219" t="str">
-        <f>LEFT(D219,2)&amp;"*公司"</f>
-        <v>國家*公司</v>
+        <f t="shared" si="7"/>
+        <v>領導*公司</v>
       </c>
       <c r="J219" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K219" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="220" spans="2:11">
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>655</v>
-      </c>
-      <c r="D220" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E220" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F220" t="s">
         <v>583</v>
@@ -12617,11 +12617,11 @@
       </c>
       <c r="H220" t="str">
         <f t="shared" si="6"/>
-        <v>蕭O淳</v>
+        <v>鄭O熏</v>
       </c>
       <c r="I220" t="str">
         <f t="shared" si="7"/>
-        <v>領導*公司</v>
+        <v>*公司</v>
       </c>
       <c r="J220" s="4">
         <v>8</v>
@@ -12632,13 +12632,16 @@
     </row>
     <row r="221" spans="2:11">
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>658</v>
+        <v>660</v>
+      </c>
+      <c r="D221" t="s">
+        <v>661</v>
       </c>
       <c r="E221" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F221" t="s">
         <v>583</v>
@@ -12648,11 +12651,11 @@
       </c>
       <c r="H221" t="str">
         <f t="shared" si="6"/>
-        <v>鄭O熏</v>
+        <v>潘O亞</v>
       </c>
       <c r="I221" t="str">
         <f t="shared" si="7"/>
-        <v>*公司</v>
+        <v>康普*公司</v>
       </c>
       <c r="J221" s="4">
         <v>8</v>
@@ -12666,13 +12669,13 @@
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D222" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E222" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F222" t="s">
         <v>583</v>
@@ -12682,11 +12685,11 @@
       </c>
       <c r="H222" t="str">
         <f t="shared" si="6"/>
-        <v>潘O亞</v>
+        <v>賴O嫻</v>
       </c>
       <c r="I222" t="str">
         <f t="shared" si="7"/>
-        <v>康普*公司</v>
+        <v>臺鐵*公司</v>
       </c>
       <c r="J222" s="4">
         <v>8</v>
@@ -12700,27 +12703,27 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>663</v>
+        <v>280</v>
       </c>
       <c r="D223" t="s">
-        <v>664</v>
+        <v>281</v>
       </c>
       <c r="E223" t="s">
-        <v>665</v>
+        <v>282</v>
       </c>
       <c r="F223" t="s">
-        <v>583</v>
+        <v>677</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>14</v>
+        <v>678</v>
       </c>
       <c r="H223" t="str">
-        <f t="shared" si="6"/>
-        <v>賴O嫻</v>
+        <f>REPLACE(C223,LEN(C223)-1,1,"O")</f>
+        <v>李O瑛</v>
       </c>
       <c r="I223" t="str">
-        <f t="shared" si="7"/>
-        <v>臺鐵*公司</v>
+        <f>LEFT(D223,2)&amp;"*公司"</f>
+        <v>美商*公司</v>
       </c>
       <c r="J223" s="4">
         <v>8</v>
@@ -12731,47 +12734,47 @@
     </row>
     <row r="224" spans="2:11">
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>280</v>
-      </c>
-      <c r="D224" t="s">
-        <v>281</v>
+        <v>666</v>
       </c>
       <c r="E224" t="s">
-        <v>282</v>
+        <v>667</v>
       </c>
       <c r="F224" t="s">
-        <v>677</v>
+        <v>583</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>678</v>
+        <v>14</v>
       </c>
       <c r="H224" t="str">
-        <f>REPLACE(C224,LEN(C224)-1,1,"O")</f>
-        <v>李O瑛</v>
+        <f t="shared" si="6"/>
+        <v>黃O萱</v>
       </c>
       <c r="I224" t="str">
-        <f>LEFT(D224,2)&amp;"*公司"</f>
-        <v>美商*公司</v>
+        <f t="shared" si="7"/>
+        <v>*公司</v>
       </c>
       <c r="J224" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K224" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="2:11">
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>666</v>
+        <v>668</v>
+      </c>
+      <c r="D225" t="s">
+        <v>669</v>
       </c>
       <c r="E225" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F225" t="s">
         <v>583</v>
@@ -12781,11 +12784,11 @@
       </c>
       <c r="H225" t="str">
         <f t="shared" si="6"/>
-        <v>黃O萱</v>
+        <v>張O翔</v>
       </c>
       <c r="I225" t="str">
         <f t="shared" si="7"/>
-        <v>*公司</v>
+        <v>大笠*公司</v>
       </c>
       <c r="J225" s="4">
         <v>9</v>
@@ -12799,13 +12802,13 @@
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D226" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E226" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F226" t="s">
         <v>583</v>
@@ -12815,11 +12818,11 @@
       </c>
       <c r="H226" t="str">
         <f t="shared" si="6"/>
-        <v>張O翔</v>
+        <v>李O庭</v>
       </c>
       <c r="I226" t="str">
         <f t="shared" si="7"/>
-        <v>大笠*公司</v>
+        <v>味全*公司</v>
       </c>
       <c r="J226" s="4">
         <v>9</v>
@@ -12830,16 +12833,16 @@
     </row>
     <row r="227" spans="2:11">
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="D227" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E227" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F227" t="s">
         <v>583</v>
@@ -12849,7 +12852,7 @@
       </c>
       <c r="H227" t="str">
         <f t="shared" si="6"/>
-        <v>李O庭</v>
+        <v>傅O翔</v>
       </c>
       <c r="I227" t="str">
         <f t="shared" si="7"/>
@@ -12864,30 +12867,30 @@
     </row>
     <row r="228" spans="2:11">
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>674</v>
+        <v>324</v>
       </c>
       <c r="D228" t="s">
-        <v>675</v>
+        <v>325</v>
       </c>
       <c r="E228" t="s">
-        <v>676</v>
+        <v>326</v>
       </c>
       <c r="F228" t="s">
-        <v>583</v>
+        <v>677</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="6"/>
-        <v>傅O翔</v>
+        <f>REPLACE(C228,LEN(C228)-1,1,"O")</f>
+        <v>賴O平</v>
       </c>
       <c r="I228" t="str">
-        <f t="shared" si="7"/>
-        <v>味全*公司</v>
+        <f>LEFT(D228,2)&amp;"*公司"</f>
+        <v>微笑*公司</v>
       </c>
       <c r="J228" s="4">
         <v>9</v>
@@ -12897,69 +12900,36 @@
       </c>
     </row>
     <row r="229" spans="2:11">
-      <c r="B229" t="b">
-        <v>0</v>
-      </c>
-      <c r="C229" t="s">
-        <v>324</v>
+      <c r="C229" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="D229" t="s">
-        <v>325</v>
-      </c>
-      <c r="E229" t="s">
-        <v>326</v>
+        <v>691</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>690</v>
       </c>
       <c r="F229" t="s">
         <v>677</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>14</v>
+        <v>689</v>
       </c>
       <c r="H229" t="str">
         <f>REPLACE(C229,LEN(C229)-1,1,"O")</f>
-        <v>賴O平</v>
+        <v>周O良</v>
       </c>
       <c r="I229" t="str">
         <f>LEFT(D229,2)&amp;"*公司"</f>
-        <v>微笑*公司</v>
-      </c>
-      <c r="J229" s="4">
-        <v>9</v>
-      </c>
-      <c r="K229" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="230" spans="2:11">
-      <c r="C230" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D230" t="s">
-        <v>691</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="F230" t="s">
-        <v>677</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="H230" t="str">
-        <f>REPLACE(C230,LEN(C230)-1,1,"O")</f>
-        <v>周O良</v>
-      </c>
-      <c r="I230" t="str">
-        <f>LEFT(D230,2)&amp;"*公司"</f>
         <v>台灣*公司</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L229" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E219" r:id="rId1" xr:uid="{3E58449C-C349-4080-9BBF-D5DA0307E6AA}"/>
-    <hyperlink ref="E230" r:id="rId2" xr:uid="{7561CC59-31CA-4323-A275-4752575FCEFF}"/>
+    <hyperlink ref="E218" r:id="rId1" xr:uid="{3E58449C-C349-4080-9BBF-D5DA0307E6AA}"/>
+    <hyperlink ref="E229" r:id="rId2" xr:uid="{7561CC59-31CA-4323-A275-4752575FCEFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12973,11 +12943,11 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/報名資訊/宣導會名單_錄取.xlsx
+++ b/報名資訊/宣導會名單_錄取.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c6b1caa79e56bf/GitHub/test2/報名資訊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A4BA467-3BC2-4D48-BD63-43297CF4D35A}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A498152-91A1-457E-B7FD-2CFC439A1460}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="694">
   <si>
     <t>優先排除</t>
   </si>
@@ -2247,6 +2247,10 @@
   </si>
   <si>
     <t>演練</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自選</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5656,10 +5660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5710,7 +5715,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1">
       <c r="B2" t="b">
         <v>0</v>
       </c>
@@ -5744,7 +5749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="B3" t="b">
         <v>0</v>
       </c>
@@ -5778,7 +5783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1">
       <c r="B4" t="b">
         <v>0</v>
       </c>
@@ -5812,7 +5817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="B5" t="b">
         <v>0</v>
       </c>
@@ -5846,7 +5851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="B6" t="b">
         <v>0</v>
       </c>
@@ -5880,7 +5885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1">
       <c r="B7" t="b">
         <v>0</v>
       </c>
@@ -5914,7 +5919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1">
       <c r="B8" t="b">
         <v>0</v>
       </c>
@@ -5948,7 +5953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="B9" t="b">
         <v>0</v>
       </c>
@@ -5982,7 +5987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" hidden="1">
       <c r="B10" t="b">
         <v>0</v>
       </c>
@@ -6016,7 +6021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" hidden="1">
       <c r="B11" t="b">
         <v>0</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" hidden="1">
       <c r="B12" t="b">
         <v>0</v>
       </c>
@@ -6084,7 +6089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" hidden="1">
       <c r="B13" t="b">
         <v>0</v>
       </c>
@@ -6118,7 +6123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" hidden="1">
       <c r="B14" t="b">
         <v>0</v>
       </c>
@@ -6152,7 +6157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" hidden="1">
       <c r="B15" t="b">
         <v>0</v>
       </c>
@@ -6186,7 +6191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" hidden="1">
       <c r="B16" t="b">
         <v>0</v>
       </c>
@@ -6220,7 +6225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" hidden="1">
       <c r="B17" t="b">
         <v>0</v>
       </c>
@@ -6254,7 +6259,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" hidden="1">
       <c r="B18" t="b">
         <v>0</v>
       </c>
@@ -6288,7 +6293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" hidden="1">
       <c r="B19" t="b">
         <v>0</v>
       </c>
@@ -6322,7 +6327,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" hidden="1">
       <c r="B20" t="b">
         <v>0</v>
       </c>
@@ -6356,7 +6361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" hidden="1">
       <c r="B21" t="b">
         <v>0</v>
       </c>
@@ -6390,7 +6395,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" hidden="1">
       <c r="B22" t="b">
         <v>0</v>
       </c>
@@ -6424,7 +6429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" hidden="1">
       <c r="B23" t="b">
         <v>0</v>
       </c>
@@ -6458,7 +6463,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" hidden="1">
       <c r="B24" t="b">
         <v>0</v>
       </c>
@@ -6492,7 +6497,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" hidden="1">
       <c r="B25" t="b">
         <v>0</v>
       </c>
@@ -6526,7 +6531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" hidden="1">
       <c r="B26" t="b">
         <v>0</v>
       </c>
@@ -6560,7 +6565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" hidden="1">
       <c r="B27" t="b">
         <v>0</v>
       </c>
@@ -6594,7 +6599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" hidden="1">
       <c r="B28" t="b">
         <v>0</v>
       </c>
@@ -6628,7 +6633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" hidden="1">
       <c r="B29" t="b">
         <v>0</v>
       </c>
@@ -6662,7 +6667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" hidden="1">
       <c r="B30" t="b">
         <v>0</v>
       </c>
@@ -6696,7 +6701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" hidden="1">
       <c r="B31" t="b">
         <v>0</v>
       </c>
@@ -6730,7 +6735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" hidden="1">
       <c r="B32" t="b">
         <v>0</v>
       </c>
@@ -6761,7 +6766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="14.4">
+    <row r="33" spans="2:11" ht="14.4" hidden="1">
       <c r="B33" t="b">
         <v>0</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" hidden="1">
       <c r="B34" t="b">
         <v>0</v>
       </c>
@@ -6829,7 +6834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" hidden="1">
       <c r="B35" t="b">
         <v>0</v>
       </c>
@@ -6863,7 +6868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" hidden="1">
       <c r="B36" t="b">
         <v>0</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" hidden="1">
       <c r="B37" t="b">
         <v>0</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" hidden="1">
       <c r="B38" t="b">
         <v>0</v>
       </c>
@@ -6965,7 +6970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" hidden="1">
       <c r="B39" t="b">
         <v>0</v>
       </c>
@@ -6999,7 +7004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" hidden="1">
       <c r="B40" t="b">
         <v>0</v>
       </c>
@@ -7033,7 +7038,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" hidden="1">
       <c r="B41" t="b">
         <v>0</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" hidden="1">
       <c r="B42" t="b">
         <v>0</v>
       </c>
@@ -7101,7 +7106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" hidden="1">
       <c r="B43" t="b">
         <v>0</v>
       </c>
@@ -7135,7 +7140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" hidden="1">
       <c r="B44" t="b">
         <v>0</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" hidden="1">
       <c r="B45" t="b">
         <v>0</v>
       </c>
@@ -7203,7 +7208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" hidden="1">
       <c r="B46" t="b">
         <v>0</v>
       </c>
@@ -7237,7 +7242,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" hidden="1">
       <c r="B47" t="b">
         <v>0</v>
       </c>
@@ -7271,7 +7276,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" hidden="1">
       <c r="B48" t="b">
         <v>0</v>
       </c>
@@ -7305,7 +7310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="B49" t="b">
         <v>0</v>
       </c>
@@ -7339,7 +7344,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="B50" t="b">
         <v>0</v>
       </c>
@@ -7364,7 +7369,7 @@
         <v>台灣*公司</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="B51" t="b">
         <v>0</v>
       </c>
@@ -7389,7 +7394,7 @@
         <v>賀雙*公司</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="B52" t="b">
         <v>0</v>
       </c>
@@ -7414,7 +7419,7 @@
         <v>黑松*公司</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="B53" t="b">
         <v>0</v>
       </c>
@@ -7439,7 +7444,7 @@
         <v>頂呱*公司</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="B54" t="b">
         <v>0</v>
       </c>
@@ -7473,7 +7478,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="B55" t="b">
         <v>0</v>
       </c>
@@ -7507,7 +7512,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="B56" t="b">
         <v>0</v>
       </c>
@@ -7541,7 +7546,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="B57" t="b">
         <v>0</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>台灣*公司</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="B58" t="b">
         <v>0</v>
       </c>
@@ -7600,7 +7605,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1">
       <c r="B59" t="b">
         <v>0</v>
       </c>
@@ -7625,7 +7630,7 @@
         <v>布列*公司</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1">
       <c r="A60" t="s">
         <v>689</v>
       </c>
@@ -7662,7 +7667,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1">
       <c r="B61" t="b">
         <v>0</v>
       </c>
@@ -7687,7 +7692,7 @@
         <v>日勝*公司</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1">
       <c r="B62" t="b">
         <v>0</v>
       </c>
@@ -7712,7 +7717,7 @@
         <v>創為*公司</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1">
       <c r="B63" t="b">
         <v>0</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1">
       <c r="B64" t="b">
         <v>0</v>
       </c>
@@ -7780,7 +7785,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" hidden="1">
       <c r="B65" t="b">
         <v>0</v>
       </c>
@@ -7814,7 +7819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="2:11" hidden="1">
       <c r="B66" t="b">
         <v>0</v>
       </c>
@@ -7839,7 +7844,7 @@
         <v>協易*公司</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" hidden="1">
       <c r="B67" t="b">
         <v>0</v>
       </c>
@@ -7873,7 +7878,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" hidden="1">
       <c r="B68" t="b">
         <v>0</v>
       </c>
@@ -7907,7 +7912,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" hidden="1">
       <c r="B69" t="b">
         <v>0</v>
       </c>
@@ -7941,7 +7946,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="2:11">
+    <row r="70" spans="2:11" hidden="1">
       <c r="B70" t="b">
         <v>0</v>
       </c>
@@ -7975,7 +7980,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" hidden="1">
       <c r="B71" t="b">
         <v>0</v>
       </c>
@@ -8000,7 +8005,7 @@
         <v>新應*公司</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" hidden="1">
       <c r="B72" t="b">
         <v>0</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" hidden="1">
       <c r="B73" t="b">
         <v>0</v>
       </c>
@@ -8059,7 +8064,7 @@
         <v>合機*公司</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" hidden="1">
       <c r="B74" t="b">
         <v>0</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" hidden="1">
       <c r="B75" t="b">
         <v>0</v>
       </c>
@@ -8127,7 +8132,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" hidden="1">
       <c r="B76" t="b">
         <v>0</v>
       </c>
@@ -8152,7 +8157,7 @@
         <v>四維*公司</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="2:11" hidden="1">
       <c r="B77" t="b">
         <v>0</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" hidden="1">
       <c r="B78" t="b">
         <v>0</v>
       </c>
@@ -8211,7 +8216,7 @@
         <v>富士*公司</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" hidden="1">
       <c r="B79" t="b">
         <v>0</v>
       </c>
@@ -8236,7 +8241,7 @@
         <v>華新*公司</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" hidden="1">
       <c r="B80" t="b">
         <v>0</v>
       </c>
@@ -8261,7 +8266,7 @@
         <v>臺灣*公司</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" hidden="1">
       <c r="B81" t="b">
         <v>0</v>
       </c>
@@ -8295,7 +8300,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" hidden="1">
       <c r="B82" t="b">
         <v>0</v>
       </c>
@@ -8329,7 +8334,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" hidden="1">
       <c r="B83" t="b">
         <v>0</v>
       </c>
@@ -8354,7 +8359,7 @@
         <v>康普*公司</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="2:11" hidden="1">
       <c r="B84" t="b">
         <v>0</v>
       </c>
@@ -8379,7 +8384,7 @@
         <v>北投*公司</v>
       </c>
     </row>
-    <row r="85" spans="2:11">
+    <row r="85" spans="2:11" hidden="1">
       <c r="B85" t="b">
         <v>0</v>
       </c>
@@ -8404,7 +8409,7 @@
         <v>華新*公司</v>
       </c>
     </row>
-    <row r="86" spans="2:11">
+    <row r="86" spans="2:11" hidden="1">
       <c r="B86" t="b">
         <v>0</v>
       </c>
@@ -8438,7 +8443,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" hidden="1">
       <c r="B87" t="b">
         <v>0</v>
       </c>
@@ -8472,7 +8477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
+    <row r="88" spans="2:11" hidden="1">
       <c r="B88" t="b">
         <v>0</v>
       </c>
@@ -8506,7 +8511,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" hidden="1">
       <c r="B89" t="b">
         <v>0</v>
       </c>
@@ -8531,7 +8536,7 @@
         <v>耕莘*公司</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" hidden="1">
       <c r="B90" t="b">
         <v>0</v>
       </c>
@@ -8565,7 +8570,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" hidden="1">
       <c r="B91" t="b">
         <v>0</v>
       </c>
@@ -8599,7 +8604,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" hidden="1">
       <c r="B92" t="b">
         <v>0</v>
       </c>
@@ -8624,7 +8629,7 @@
         <v>休斯*公司</v>
       </c>
     </row>
-    <row r="93" spans="2:11">
+    <row r="93" spans="2:11" hidden="1">
       <c r="B93" t="b">
         <v>0</v>
       </c>
@@ -8658,7 +8663,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="2:11">
+    <row r="94" spans="2:11" hidden="1">
       <c r="B94" t="b">
         <v>0</v>
       </c>
@@ -8692,7 +8697,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="2:11">
+    <row r="95" spans="2:11" hidden="1">
       <c r="B95" t="b">
         <v>0</v>
       </c>
@@ -8717,7 +8722,7 @@
         <v>三義*公司</v>
       </c>
     </row>
-    <row r="96" spans="2:11">
+    <row r="96" spans="2:11" hidden="1">
       <c r="B96" t="b">
         <v>0</v>
       </c>
@@ -8751,7 +8756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" hidden="1">
       <c r="B97" t="b">
         <v>0</v>
       </c>
@@ -8777,7 +8782,7 @@
         <v>星能*公司</v>
       </c>
     </row>
-    <row r="98" spans="2:11">
+    <row r="98" spans="2:11" hidden="1">
       <c r="B98" t="b">
         <v>0</v>
       </c>
@@ -8811,7 +8816,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" hidden="1">
       <c r="B99" t="b">
         <v>0</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" hidden="1">
       <c r="B100" t="b">
         <v>0</v>
       </c>
@@ -8879,7 +8884,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="2:11">
+    <row r="101" spans="2:11" hidden="1">
       <c r="B101" t="b">
         <v>0</v>
       </c>
@@ -8913,7 +8918,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" hidden="1">
       <c r="B102" t="b">
         <v>0</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
+    <row r="103" spans="2:11" hidden="1">
       <c r="B103" t="b">
         <v>0</v>
       </c>
@@ -8972,7 +8977,7 @@
         <v>遠東*公司</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" hidden="1">
       <c r="B104" t="b">
         <v>0</v>
       </c>
@@ -8997,7 +9002,7 @@
         <v>神基*公司</v>
       </c>
     </row>
-    <row r="105" spans="2:11">
+    <row r="105" spans="2:11" hidden="1">
       <c r="B105" t="b">
         <v>0</v>
       </c>
@@ -9031,7 +9036,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
+    <row r="106" spans="2:11" hidden="1">
       <c r="B106" t="b">
         <v>0</v>
       </c>
@@ -9056,7 +9061,7 @@
         <v>聯華*公司</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" hidden="1">
       <c r="B107" t="b">
         <v>0</v>
       </c>
@@ -9090,7 +9095,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="2:11">
+    <row r="108" spans="2:11" hidden="1">
       <c r="B108" t="b">
         <v>0</v>
       </c>
@@ -9115,7 +9120,7 @@
         <v>CT*公司</v>
       </c>
     </row>
-    <row r="109" spans="2:11">
+    <row r="109" spans="2:11" hidden="1">
       <c r="B109" t="b">
         <v>0</v>
       </c>
@@ -9149,7 +9154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="2:11">
+    <row r="110" spans="2:11" hidden="1">
       <c r="B110" t="b">
         <v>0</v>
       </c>
@@ -9183,7 +9188,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="2:11">
+    <row r="111" spans="2:11" hidden="1">
       <c r="B111" t="b">
         <v>0</v>
       </c>
@@ -9217,7 +9222,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="112" spans="2:11">
+    <row r="112" spans="2:11" hidden="1">
       <c r="B112" t="b">
         <v>0</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="2:11">
+    <row r="113" spans="2:11" hidden="1">
       <c r="B113" t="b">
         <v>0</v>
       </c>
@@ -9277,7 +9282,7 @@
         <v>聯碩*公司</v>
       </c>
     </row>
-    <row r="114" spans="2:11">
+    <row r="114" spans="2:11" hidden="1">
       <c r="B114" t="b">
         <v>0</v>
       </c>
@@ -9311,7 +9316,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="115" spans="2:11">
+    <row r="115" spans="2:11" hidden="1">
       <c r="B115" t="b">
         <v>0</v>
       </c>
@@ -9345,7 +9350,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="2:11">
+    <row r="116" spans="2:11" hidden="1">
       <c r="B116" t="b">
         <v>0</v>
       </c>
@@ -9379,7 +9384,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="2:11">
+    <row r="117" spans="2:11" hidden="1">
       <c r="B117" t="b">
         <v>0</v>
       </c>
@@ -9404,7 +9409,7 @@
         <v>長春*公司</v>
       </c>
     </row>
-    <row r="118" spans="2:11">
+    <row r="118" spans="2:11" hidden="1">
       <c r="B118" t="b">
         <v>0</v>
       </c>
@@ -9429,7 +9434,7 @@
         <v>全台*公司</v>
       </c>
     </row>
-    <row r="119" spans="2:11">
+    <row r="119" spans="2:11" hidden="1">
       <c r="B119" t="b">
         <v>0</v>
       </c>
@@ -9463,7 +9468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="2:11">
+    <row r="120" spans="2:11" hidden="1">
       <c r="B120" t="b">
         <v>0</v>
       </c>
@@ -9488,7 +9493,7 @@
         <v>前端*公司</v>
       </c>
     </row>
-    <row r="121" spans="2:11">
+    <row r="121" spans="2:11" hidden="1">
       <c r="B121" t="b">
         <v>0</v>
       </c>
@@ -9522,7 +9527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="2:11">
+    <row r="122" spans="2:11" hidden="1">
       <c r="B122" t="b">
         <v>0</v>
       </c>
@@ -9556,7 +9561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="2:11">
+    <row r="123" spans="2:11" hidden="1">
       <c r="B123" t="b">
         <v>0</v>
       </c>
@@ -9590,7 +9595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="2:11">
+    <row r="124" spans="2:11" hidden="1">
       <c r="B124" t="b">
         <v>0</v>
       </c>
@@ -9624,7 +9629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="2:11">
+    <row r="125" spans="2:11" hidden="1">
       <c r="B125" t="b">
         <v>0</v>
       </c>
@@ -9658,7 +9663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="2:11">
+    <row r="126" spans="2:11" hidden="1">
       <c r="B126" t="b">
         <v>0</v>
       </c>
@@ -9683,7 +9688,7 @@
         <v>允強*公司</v>
       </c>
     </row>
-    <row r="127" spans="2:11">
+    <row r="127" spans="2:11" hidden="1">
       <c r="B127" t="b">
         <v>0</v>
       </c>
@@ -9717,7 +9722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="2:11">
+    <row r="128" spans="2:11" hidden="1">
       <c r="B128" t="b">
         <v>0</v>
       </c>
@@ -9751,7 +9756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="2:11" hidden="1">
       <c r="B129" t="b">
         <v>0</v>
       </c>
@@ -9785,7 +9790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="2:11" hidden="1">
       <c r="B130" t="b">
         <v>0</v>
       </c>
@@ -9810,7 +9815,7 @@
         <v>韋僑*公司</v>
       </c>
     </row>
-    <row r="131" spans="2:11">
+    <row r="131" spans="2:11" hidden="1">
       <c r="B131" t="b">
         <v>0</v>
       </c>
@@ -9844,7 +9849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="2:11">
+    <row r="132" spans="2:11" hidden="1">
       <c r="B132" t="b">
         <v>0</v>
       </c>
@@ -9878,7 +9883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="2:11">
+    <row r="133" spans="2:11" hidden="1">
       <c r="B133" t="b">
         <v>0</v>
       </c>
@@ -9912,7 +9917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="2:11">
+    <row r="134" spans="2:11" hidden="1">
       <c r="B134" t="b">
         <v>0</v>
       </c>
@@ -9937,7 +9942,7 @@
         <v>喬山*公司</v>
       </c>
     </row>
-    <row r="135" spans="2:11">
+    <row r="135" spans="2:11" hidden="1">
       <c r="B135" t="b">
         <v>0</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="2:11">
+    <row r="136" spans="2:11" hidden="1">
       <c r="B136" t="b">
         <v>0</v>
       </c>
@@ -9996,7 +10001,7 @@
         <v>群品*公司</v>
       </c>
     </row>
-    <row r="137" spans="2:11">
+    <row r="137" spans="2:11" hidden="1">
       <c r="B137" t="b">
         <v>0</v>
       </c>
@@ -10030,7 +10035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="2:11">
+    <row r="138" spans="2:11" hidden="1">
       <c r="B138" t="b">
         <v>0</v>
       </c>
@@ -10055,7 +10060,7 @@
         <v>仁愛*公司</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
+    <row r="139" spans="2:11" hidden="1">
       <c r="B139" t="b">
         <v>0</v>
       </c>
@@ -10089,7 +10094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="2:11">
+    <row r="140" spans="2:11" hidden="1">
       <c r="B140" t="b">
         <v>0</v>
       </c>
@@ -10123,7 +10128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="2:11">
+    <row r="141" spans="2:11" hidden="1">
       <c r="B141" t="b">
         <v>0</v>
       </c>
@@ -10148,7 +10153,7 @@
         <v>億威*公司</v>
       </c>
     </row>
-    <row r="142" spans="2:11">
+    <row r="142" spans="2:11" hidden="1">
       <c r="B142" t="b">
         <v>0</v>
       </c>
@@ -10173,7 +10178,7 @@
         <v>台鐵*公司</v>
       </c>
     </row>
-    <row r="143" spans="2:11">
+    <row r="143" spans="2:11" hidden="1">
       <c r="B143" t="b">
         <v>0</v>
       </c>
@@ -10207,7 +10212,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="144" spans="2:11">
+    <row r="144" spans="2:11" hidden="1">
       <c r="B144" t="b">
         <v>0</v>
       </c>
@@ -10241,7 +10246,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="145" spans="2:11">
+    <row r="145" spans="2:11" hidden="1">
       <c r="B145" t="b">
         <v>0</v>
       </c>
@@ -10275,7 +10280,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="146" spans="2:11">
+    <row r="146" spans="2:11" hidden="1">
       <c r="B146" t="b">
         <v>0</v>
       </c>
@@ -10300,7 +10305,7 @@
         <v>佳凌*公司</v>
       </c>
     </row>
-    <row r="147" spans="2:11">
+    <row r="147" spans="2:11" hidden="1">
       <c r="B147" t="b">
         <v>0</v>
       </c>
@@ -10325,7 +10330,7 @@
         <v>台灣*公司</v>
       </c>
     </row>
-    <row r="148" spans="2:11">
+    <row r="148" spans="2:11" hidden="1">
       <c r="B148" t="b">
         <v>0</v>
       </c>
@@ -10359,7 +10364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="149" spans="2:11">
+    <row r="149" spans="2:11" hidden="1">
       <c r="B149" t="b">
         <v>0</v>
       </c>
@@ -10393,7 +10398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="2:11">
+    <row r="150" spans="2:11" hidden="1">
       <c r="B150" t="b">
         <v>0</v>
       </c>
@@ -10427,7 +10432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:11">
+    <row r="151" spans="2:11" hidden="1">
       <c r="B151" t="b">
         <v>0</v>
       </c>
@@ -10461,7 +10466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="2:11">
+    <row r="152" spans="2:11" hidden="1">
       <c r="B152" t="b">
         <v>0</v>
       </c>
@@ -10495,7 +10500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="2:11">
+    <row r="153" spans="2:11" hidden="1">
       <c r="B153" t="b">
         <v>0</v>
       </c>
@@ -10520,7 +10525,7 @@
         <v>中宇*公司</v>
       </c>
     </row>
-    <row r="154" spans="2:11">
+    <row r="154" spans="2:11" hidden="1">
       <c r="B154" t="b">
         <v>0</v>
       </c>
@@ -10554,7 +10559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="2:11">
+    <row r="155" spans="2:11" hidden="1">
       <c r="B155" t="b">
         <v>0</v>
       </c>
@@ -10588,7 +10593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="2:11">
+    <row r="156" spans="2:11" hidden="1">
       <c r="B156" t="b">
         <v>0</v>
       </c>
@@ -10613,7 +10618,7 @@
         <v>保勝*公司</v>
       </c>
     </row>
-    <row r="157" spans="2:11">
+    <row r="157" spans="2:11" hidden="1">
       <c r="B157" t="b">
         <v>0</v>
       </c>
@@ -10638,7 +10643,7 @@
         <v>風睿*公司</v>
       </c>
     </row>
-    <row r="158" spans="2:11">
+    <row r="158" spans="2:11" hidden="1">
       <c r="B158" t="b">
         <v>0</v>
       </c>
@@ -10672,7 +10677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="2:11">
+    <row r="159" spans="2:11" hidden="1">
       <c r="B159" t="b">
         <v>0</v>
       </c>
@@ -10697,7 +10702,7 @@
         <v>中台*公司</v>
       </c>
     </row>
-    <row r="160" spans="2:11">
+    <row r="160" spans="2:11" hidden="1">
       <c r="B160" t="b">
         <v>0</v>
       </c>
@@ -10722,7 +10727,7 @@
         <v>聖岱*公司</v>
       </c>
     </row>
-    <row r="161" spans="2:11">
+    <row r="161" spans="2:11" hidden="1">
       <c r="B161" t="b">
         <v>0</v>
       </c>
@@ -10756,7 +10761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="2:11">
+    <row r="162" spans="2:11" hidden="1">
       <c r="B162" t="b">
         <v>0</v>
       </c>
@@ -10790,7 +10795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="2:11">
+    <row r="163" spans="2:11" hidden="1">
       <c r="B163" t="b">
         <v>0</v>
       </c>
@@ -10815,7 +10820,7 @@
         <v>中台*公司</v>
       </c>
     </row>
-    <row r="164" spans="2:11">
+    <row r="164" spans="2:11" hidden="1">
       <c r="B164" t="b">
         <v>0</v>
       </c>
@@ -10849,7 +10854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="2:11">
+    <row r="165" spans="2:11" hidden="1">
       <c r="B165" t="b">
         <v>0</v>
       </c>
@@ -10883,7 +10888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="2:11">
+    <row r="166" spans="2:11" hidden="1">
       <c r="B166" t="b">
         <v>0</v>
       </c>
@@ -10917,7 +10922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="2:11">
+    <row r="167" spans="2:11" hidden="1">
       <c r="B167" t="b">
         <v>0</v>
       </c>
@@ -10951,7 +10956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="2:11">
+    <row r="168" spans="2:11" hidden="1">
       <c r="B168" t="b">
         <v>0</v>
       </c>
@@ -10985,7 +10990,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="2:11">
+    <row r="169" spans="2:11" hidden="1">
       <c r="B169" t="b">
         <v>0</v>
       </c>
@@ -11010,7 +11015,7 @@
         <v>科森*公司</v>
       </c>
     </row>
-    <row r="170" spans="2:11">
+    <row r="170" spans="2:11" hidden="1">
       <c r="B170" t="b">
         <v>0</v>
       </c>
@@ -11035,7 +11040,7 @@
         <v>中聯*公司</v>
       </c>
     </row>
-    <row r="171" spans="2:11">
+    <row r="171" spans="2:11" hidden="1">
       <c r="B171" t="b">
         <v>0</v>
       </c>
@@ -11069,7 +11074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="2:11">
+    <row r="172" spans="2:11" hidden="1">
       <c r="B172" t="b">
         <v>0</v>
       </c>
@@ -11103,7 +11108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="2:11">
+    <row r="173" spans="2:11" hidden="1">
       <c r="B173" t="b">
         <v>0</v>
       </c>
@@ -11128,7 +11133,7 @@
         <v>永進*公司</v>
       </c>
     </row>
-    <row r="174" spans="2:11">
+    <row r="174" spans="2:11" hidden="1">
       <c r="B174" t="b">
         <v>0</v>
       </c>
@@ -11153,7 +11158,7 @@
         <v>台達*公司</v>
       </c>
     </row>
-    <row r="175" spans="2:11">
+    <row r="175" spans="2:11" hidden="1">
       <c r="B175" t="b">
         <v>0</v>
       </c>
@@ -11187,7 +11192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="2:11">
+    <row r="176" spans="2:11" hidden="1">
       <c r="B176" t="b">
         <v>0</v>
       </c>
@@ -11221,7 +11226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="2:11">
+    <row r="177" spans="2:11" hidden="1">
       <c r="B177" t="b">
         <v>0</v>
       </c>
@@ -11246,7 +11251,7 @@
         <v>日本*公司</v>
       </c>
     </row>
-    <row r="178" spans="2:11">
+    <row r="178" spans="2:11" hidden="1">
       <c r="B178" t="b">
         <v>0</v>
       </c>
@@ -11271,7 +11276,7 @@
         <v xml:space="preserve">  *公司</v>
       </c>
     </row>
-    <row r="179" spans="2:11">
+    <row r="179" spans="2:11" hidden="1">
       <c r="B179" t="b">
         <v>0</v>
       </c>
@@ -11305,7 +11310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="2:11">
+    <row r="180" spans="2:11" hidden="1">
       <c r="B180" t="b">
         <v>0</v>
       </c>
@@ -11339,7 +11344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="2:11">
+    <row r="181" spans="2:11" hidden="1">
       <c r="B181" t="b">
         <v>0</v>
       </c>
@@ -11373,7 +11378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="182" spans="2:11">
+    <row r="182" spans="2:11" hidden="1">
       <c r="B182" t="b">
         <v>0</v>
       </c>
@@ -11398,7 +11403,7 @@
         <v>維熹*公司</v>
       </c>
     </row>
-    <row r="183" spans="2:11">
+    <row r="183" spans="2:11" hidden="1">
       <c r="B183" t="b">
         <v>0</v>
       </c>
@@ -11432,7 +11437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="184" spans="2:11">
+    <row r="184" spans="2:11" hidden="1">
       <c r="B184" t="b">
         <v>0</v>
       </c>
@@ -11457,7 +11462,7 @@
         <v>昭勝*公司</v>
       </c>
     </row>
-    <row r="185" spans="2:11">
+    <row r="185" spans="2:11" hidden="1">
       <c r="B185" t="b">
         <v>0</v>
       </c>
@@ -11491,7 +11496,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="186" spans="2:11">
+    <row r="186" spans="2:11" hidden="1">
       <c r="B186" t="b">
         <v>0</v>
       </c>
@@ -11525,7 +11530,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="187" spans="2:11">
+    <row r="187" spans="2:11" hidden="1">
       <c r="B187" t="b">
         <v>0</v>
       </c>
@@ -11550,7 +11555,7 @@
         <v>承鋒*公司</v>
       </c>
     </row>
-    <row r="188" spans="2:11">
+    <row r="188" spans="2:11" hidden="1">
       <c r="B188" t="b">
         <v>0</v>
       </c>
@@ -11575,7 +11580,7 @@
         <v>武漢*公司</v>
       </c>
     </row>
-    <row r="189" spans="2:11">
+    <row r="189" spans="2:11" hidden="1">
       <c r="B189" t="b">
         <v>0</v>
       </c>
@@ -12893,10 +12898,10 @@
         <v>微笑*公司</v>
       </c>
       <c r="J228" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K228" t="s">
-        <v>246</v>
+        <v>693</v>
       </c>
     </row>
     <row r="229" spans="2:11">
@@ -12923,9 +12928,21 @@
         <f>LEFT(D229,2)&amp;"*公司"</f>
         <v>台灣*公司</v>
       </c>
+      <c r="J229" s="4">
+        <v>10</v>
+      </c>
+      <c r="K229" t="s">
+        <v>693</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L229" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}"/>
+  <autoFilter ref="A1:L229" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="北區9月18日"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E218" r:id="rId1" xr:uid="{3E58449C-C349-4080-9BBF-D5DA0307E6AA}"/>

--- a/報名資訊/宣導會名單_錄取.xlsx
+++ b/報名資訊/宣導會名單_錄取.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c6b1caa79e56bf/GitHub/test2/報名資訊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A498152-91A1-457E-B7FD-2CFC439A1460}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF68D50-E2E6-4A17-BA04-424B43F97C59}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="699">
   <si>
     <t>優先排除</t>
   </si>
@@ -2251,6 +2251,24 @@
   </si>
   <si>
     <t>自選</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝千祥</t>
+  </si>
+  <si>
+    <t>jacky.hsieh@cctcorp.com.tw</t>
+  </si>
+  <si>
+    <t>後續報名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5661,10 +5679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231"/>
+      <selection activeCell="G222" sqref="G222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5675,6 +5693,7 @@
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" style="4"/>
     <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4">
@@ -12230,7 +12249,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="2:11">
+    <row r="209" spans="1:11">
       <c r="B209" t="b">
         <v>0</v>
       </c>
@@ -12264,7 +12283,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="2:11">
+    <row r="210" spans="1:11">
       <c r="B210" t="b">
         <v>0</v>
       </c>
@@ -12298,7 +12317,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="211" spans="2:11">
+    <row r="211" spans="1:11">
       <c r="B211" t="b">
         <v>0</v>
       </c>
@@ -12332,7 +12351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="212" spans="2:11">
+    <row r="212" spans="1:11">
       <c r="B212" t="b">
         <v>0</v>
       </c>
@@ -12366,7 +12385,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="213" spans="2:11">
+    <row r="213" spans="1:11">
       <c r="B213" t="b">
         <v>0</v>
       </c>
@@ -12400,7 +12419,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="214" spans="2:11">
+    <row r="214" spans="1:11">
       <c r="B214" t="b">
         <v>0</v>
       </c>
@@ -12434,7 +12453,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="215" spans="2:11">
+    <row r="215" spans="1:11">
       <c r="B215" t="b">
         <v>0</v>
       </c>
@@ -12468,7 +12487,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="216" spans="2:11">
+    <row r="216" spans="1:11">
       <c r="B216" t="b">
         <v>0</v>
       </c>
@@ -12502,7 +12521,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="2:11">
+    <row r="217" spans="1:11">
       <c r="B217" t="b">
         <v>0</v>
       </c>
@@ -12536,7 +12555,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="2:11">
+    <row r="218" spans="1:11">
       <c r="B218" t="b">
         <v>0</v>
       </c>
@@ -12570,7 +12589,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="219" spans="2:11">
+    <row r="219" spans="1:11">
+      <c r="A219" t="s">
+        <v>697</v>
+      </c>
       <c r="B219" t="b">
         <v>0</v>
       </c>
@@ -12587,7 +12609,7 @@
         <v>583</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>14</v>
+        <v>678</v>
       </c>
       <c r="H219" t="str">
         <f t="shared" si="6"/>
@@ -12604,7 +12626,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="220" spans="2:11">
+    <row r="220" spans="1:11">
       <c r="B220" t="b">
         <v>1</v>
       </c>
@@ -12635,7 +12657,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="221" spans="2:11">
+    <row r="221" spans="1:11">
       <c r="B221" t="b">
         <v>0</v>
       </c>
@@ -12669,7 +12691,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="2:11">
+    <row r="222" spans="1:11">
       <c r="B222" t="b">
         <v>0</v>
       </c>
@@ -12703,7 +12725,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="223" spans="2:11">
+    <row r="223" spans="1:11">
       <c r="B223" t="b">
         <v>0</v>
       </c>
@@ -12737,7 +12759,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="224" spans="2:11">
+    <row r="224" spans="1:11">
       <c r="B224" t="b">
         <v>1</v>
       </c>
@@ -12768,7 +12790,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="225" spans="2:11">
+    <row r="225" spans="1:12">
       <c r="B225" t="b">
         <v>0</v>
       </c>
@@ -12802,7 +12824,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="226" spans="2:11">
+    <row r="226" spans="1:12">
       <c r="B226" t="b">
         <v>0</v>
       </c>
@@ -12836,7 +12858,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="227" spans="2:11">
+    <row r="227" spans="1:12">
       <c r="B227" t="b">
         <v>1</v>
       </c>
@@ -12870,7 +12892,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="228" spans="2:11">
+    <row r="228" spans="1:12">
       <c r="B228" t="b">
         <v>0</v>
       </c>
@@ -12904,7 +12926,13 @@
         <v>693</v>
       </c>
     </row>
-    <row r="229" spans="2:11">
+    <row r="229" spans="1:12">
+      <c r="A229" t="s">
+        <v>698</v>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
       <c r="C229" s="10" t="s">
         <v>160</v>
       </c>
@@ -12933,6 +12961,43 @@
       </c>
       <c r="K229" t="s">
         <v>693</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+      <c r="C230" t="s">
+        <v>694</v>
+      </c>
+      <c r="D230" t="s">
+        <v>46</v>
+      </c>
+      <c r="E230" t="s">
+        <v>695</v>
+      </c>
+      <c r="F230" t="s">
+        <v>677</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H230" t="str">
+        <f>REPLACE(C230,LEN(C230)-1,1,"O")</f>
+        <v>謝O祥</v>
+      </c>
+      <c r="I230" t="str">
+        <f>LEFT(D230,2)&amp;"*公司"</f>
+        <v>中國*公司</v>
+      </c>
+      <c r="J230" s="4">
+        <v>10</v>
+      </c>
+      <c r="K230" t="s">
+        <v>693</v>
+      </c>
+      <c r="L230" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/報名資訊/宣導會名單_錄取.xlsx
+++ b/報名資訊/宣導會名單_錄取.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c6b1caa79e56bf/GitHub/test2/報名資訊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{791033B5-DD70-4EB8-9CCF-B3C0572A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF68D50-E2E6-4A17-BA04-424B43F97C59}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D78812CC-DC72-48D9-9772-FB8B4A8798C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2812548D-88CF-4236-8374-66FC39B602E2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">錄取名單!$A$1:$L$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">錄取名單!$A$1:$L$232</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="705">
   <si>
     <t>優先排除</t>
   </si>
@@ -2269,6 +2269,27 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳佳琪</t>
+  </si>
+  <si>
+    <t>Cassie.chen@tetrapak.com</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華新麗華股份有限公司</t>
+  </si>
+  <si>
+    <t>黃尚如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2429,10 +2450,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5679,10 +5696,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G222" sqref="G222"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12589,7 +12606,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" hidden="1">
       <c r="A219" t="s">
         <v>697</v>
       </c>
@@ -12609,7 +12626,7 @@
         <v>583</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="H219" t="str">
         <f t="shared" si="6"/>
@@ -12926,7 +12943,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" hidden="1">
       <c r="A229" t="s">
         <v>698</v>
       </c>
@@ -12946,7 +12963,7 @@
         <v>677</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="H229" t="str">
         <f>REPLACE(C229,LEN(C229)-1,1,"O")</f>
@@ -13000,11 +13017,90 @@
         <v>696</v>
       </c>
     </row>
+    <row r="231" spans="1:12">
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+      <c r="C231" t="s">
+        <v>699</v>
+      </c>
+      <c r="D231" t="s">
+        <v>275</v>
+      </c>
+      <c r="E231" t="s">
+        <v>700</v>
+      </c>
+      <c r="F231" t="s">
+        <v>677</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H231" t="str">
+        <f>REPLACE(C231,LEN(C231)-1,1,"O")</f>
+        <v>陳O琪</v>
+      </c>
+      <c r="I231" t="str">
+        <f>LEFT(D231,2)&amp;"*公司"</f>
+        <v>利樂*公司</v>
+      </c>
+      <c r="J231" s="4">
+        <v>10</v>
+      </c>
+      <c r="K231" t="s">
+        <v>693</v>
+      </c>
+      <c r="L231" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+      <c r="C232" t="s">
+        <v>703</v>
+      </c>
+      <c r="D232" t="s">
+        <v>702</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F232" t="s">
+        <v>677</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H232" t="str">
+        <f>REPLACE(C232,LEN(C232)-1,1,"O")</f>
+        <v>黃O如</v>
+      </c>
+      <c r="I232" t="str">
+        <f>LEFT(D232,2)&amp;"*公司"</f>
+        <v>華新*公司</v>
+      </c>
+      <c r="J232" s="4">
+        <v>10</v>
+      </c>
+      <c r="K232" t="s">
+        <v>693</v>
+      </c>
+      <c r="L232" t="s">
+        <v>696</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L229" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
+  <autoFilter ref="A1:L232" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
     <filterColumn colId="5">
       <filters>
         <filter val="北區9月18日"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="y"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13012,6 +13108,7 @@
   <hyperlinks>
     <hyperlink ref="E218" r:id="rId1" xr:uid="{3E58449C-C349-4080-9BBF-D5DA0307E6AA}"/>
     <hyperlink ref="E229" r:id="rId2" xr:uid="{7561CC59-31CA-4323-A275-4752575FCEFF}"/>
+    <hyperlink ref="E232" r:id="rId3" display="mailto:lamp0037_huang@walsin.com" xr:uid="{DDA26902-4155-49C4-84CB-D3084161CD7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/報名資訊/宣導會名單_錄取.xlsx
+++ b/報名資訊/宣導會名單_錄取.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c6b1caa79e56bf/GitHub/test2/報名資訊/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D78812CC-DC72-48D9-9772-FB8B4A8798C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2812548D-88CF-4236-8374-66FC39B602E2}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{D78812CC-DC72-48D9-9772-FB8B4A8798C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1836AA7-812A-4A23-A89A-8B42F2EBB3A8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ED5859CE-23F6-4416-B07C-49006C94444A}"/>
   </bookViews>
   <sheets>
     <sheet name="錄取名單" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="709">
   <si>
     <t>優先排除</t>
   </si>
@@ -2290,6 +2290,20 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林同棪工程顧問</t>
+  </si>
+  <si>
+    <t>shyen@tylin.com.tw</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏伸和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2414,7 +2428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2432,6 +2446,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2450,6 +2467,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5696,24 +5717,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L232"/>
+  <dimension ref="A1:L238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="4"/>
-    <col min="11" max="11" width="23.875" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="4"/>
+    <col min="11" max="11" width="23.83203125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>688</v>
       </c>
@@ -6802,7 +6823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="14.4" hidden="1">
+    <row r="33" spans="2:11" hidden="1">
       <c r="B33" t="b">
         <v>0</v>
       </c>
@@ -11665,7 +11686,7 @@
         <f t="shared" si="5"/>
         <v>*公司</v>
       </c>
-      <c r="J190" s="4">
+      <c r="J190" s="11">
         <v>1</v>
       </c>
       <c r="K190" t="s">
@@ -11696,7 +11717,7 @@
         <f t="shared" si="5"/>
         <v>*公司</v>
       </c>
-      <c r="J191" s="4">
+      <c r="J191" s="11">
         <v>1</v>
       </c>
       <c r="K191" t="s">
@@ -11730,7 +11751,7 @@
         <f t="shared" ref="I192:I227" si="7">LEFT(D192,2)&amp;"*公司"</f>
         <v>雙鍵*公司</v>
       </c>
-      <c r="J192" s="4">
+      <c r="J192" s="11">
         <v>1</v>
       </c>
       <c r="K192" t="s">
@@ -11761,7 +11782,7 @@
         <f t="shared" si="7"/>
         <v>*公司</v>
       </c>
-      <c r="J193" s="4">
+      <c r="J193" s="11">
         <v>1</v>
       </c>
       <c r="K193" t="s">
@@ -11795,7 +11816,7 @@
         <f t="shared" si="7"/>
         <v>亞洲*公司</v>
       </c>
-      <c r="J194" s="4">
+      <c r="J194" s="11">
         <v>2</v>
       </c>
       <c r="K194" t="s">
@@ -11829,7 +11850,7 @@
         <f t="shared" si="7"/>
         <v>杜風*公司</v>
       </c>
-      <c r="J195" s="4">
+      <c r="J195" s="11">
         <v>2</v>
       </c>
       <c r="K195" t="s">
@@ -11860,7 +11881,7 @@
         <f t="shared" si="7"/>
         <v>*公司</v>
       </c>
-      <c r="J196" s="4">
+      <c r="J196" s="11">
         <v>2</v>
       </c>
       <c r="K196" t="s">
@@ -11891,7 +11912,7 @@
         <f t="shared" si="7"/>
         <v>*公司</v>
       </c>
-      <c r="J197" s="4">
+      <c r="J197" s="11">
         <v>2</v>
       </c>
       <c r="K197" t="s">
@@ -11925,7 +11946,7 @@
         <f t="shared" si="7"/>
         <v>達爾*公司</v>
       </c>
-      <c r="J198" s="4">
+      <c r="J198" s="11">
         <v>3</v>
       </c>
       <c r="K198" t="s">
@@ -11959,7 +11980,7 @@
         <f t="shared" si="7"/>
         <v>YF*公司</v>
       </c>
-      <c r="J199" s="4">
+      <c r="J199" s="11">
         <v>3</v>
       </c>
       <c r="K199" t="s">
@@ -11993,7 +12014,7 @@
         <f t="shared" si="7"/>
         <v>中國*公司</v>
       </c>
-      <c r="J200" s="4">
+      <c r="J200" s="11">
         <v>3</v>
       </c>
       <c r="K200" t="s">
@@ -12024,7 +12045,7 @@
         <f t="shared" si="7"/>
         <v>*公司</v>
       </c>
-      <c r="J201" s="4">
+      <c r="J201" s="11">
         <v>3</v>
       </c>
       <c r="K201" t="s">
@@ -12058,7 +12079,7 @@
         <f t="shared" si="7"/>
         <v>四維*公司</v>
       </c>
-      <c r="J202" s="4">
+      <c r="J202" s="11">
         <v>4</v>
       </c>
       <c r="K202" t="s">
@@ -12092,7 +12113,7 @@
         <f t="shared" si="7"/>
         <v>偉赫*公司</v>
       </c>
-      <c r="J203" s="4">
+      <c r="J203" s="11">
         <v>4</v>
       </c>
       <c r="K203" t="s">
@@ -12123,7 +12144,7 @@
         <f t="shared" si="7"/>
         <v>*公司</v>
       </c>
-      <c r="J204" s="4">
+      <c r="J204" s="11">
         <v>4</v>
       </c>
       <c r="K204" t="s">
@@ -12157,7 +12178,7 @@
         <f t="shared" si="7"/>
         <v>信實*公司</v>
       </c>
-      <c r="J205" s="4">
+      <c r="J205" s="11">
         <v>4</v>
       </c>
       <c r="K205" t="s">
@@ -12191,7 +12212,7 @@
         <f t="shared" si="7"/>
         <v>欣訊*公司</v>
       </c>
-      <c r="J206" s="4">
+      <c r="J206" s="11">
         <v>5</v>
       </c>
       <c r="K206" t="s">
@@ -12225,7 +12246,7 @@
         <f t="shared" si="7"/>
         <v>忠明*公司</v>
       </c>
-      <c r="J207" s="4">
+      <c r="J207" s="11">
         <v>5</v>
       </c>
       <c r="K207" t="s">
@@ -12259,7 +12280,7 @@
         <f t="shared" si="7"/>
         <v>大智*公司</v>
       </c>
-      <c r="J208" s="4">
+      <c r="J208" s="11">
         <v>5</v>
       </c>
       <c r="K208" t="s">
@@ -12293,7 +12314,7 @@
         <f t="shared" si="7"/>
         <v>正隆*公司</v>
       </c>
-      <c r="J209" s="4">
+      <c r="J209" s="11">
         <v>5</v>
       </c>
       <c r="K209" t="s">
@@ -12327,7 +12348,7 @@
         <f t="shared" si="7"/>
         <v>聯華*公司</v>
       </c>
-      <c r="J210" s="4">
+      <c r="J210" s="11">
         <v>6</v>
       </c>
       <c r="K210" t="s">
@@ -12361,7 +12382,7 @@
         <f t="shared" si="7"/>
         <v>佳能*公司</v>
       </c>
-      <c r="J211" s="4">
+      <c r="J211" s="11">
         <v>6</v>
       </c>
       <c r="K211" t="s">
@@ -12395,7 +12416,7 @@
         <f t="shared" si="7"/>
         <v>正隆*公司</v>
       </c>
-      <c r="J212" s="4">
+      <c r="J212" s="11">
         <v>6</v>
       </c>
       <c r="K212" t="s">
@@ -12429,7 +12450,7 @@
         <f t="shared" si="7"/>
         <v>神通*公司</v>
       </c>
-      <c r="J213" s="4">
+      <c r="J213" s="11">
         <v>6</v>
       </c>
       <c r="K213" t="s">
@@ -12463,7 +12484,7 @@
         <f t="shared" si="7"/>
         <v>高逸*公司</v>
       </c>
-      <c r="J214" s="4">
+      <c r="J214" s="11">
         <v>7</v>
       </c>
       <c r="K214" t="s">
@@ -12497,7 +12518,7 @@
         <f t="shared" si="7"/>
         <v>智弘*公司</v>
       </c>
-      <c r="J215" s="4">
+      <c r="J215" s="11">
         <v>7</v>
       </c>
       <c r="K215" t="s">
@@ -12531,7 +12552,7 @@
         <f t="shared" si="7"/>
         <v>瑞芳*公司</v>
       </c>
-      <c r="J216" s="4">
+      <c r="J216" s="11">
         <v>7</v>
       </c>
       <c r="K216" t="s">
@@ -12565,7 +12586,7 @@
         <f t="shared" si="7"/>
         <v>富昇*公司</v>
       </c>
-      <c r="J217" s="4">
+      <c r="J217" s="11">
         <v>7</v>
       </c>
       <c r="K217" t="s">
@@ -12599,7 +12620,7 @@
         <f>LEFT(D218,2)&amp;"*公司"</f>
         <v>國家*公司</v>
       </c>
-      <c r="J218" s="4">
+      <c r="J218" s="11">
         <v>7</v>
       </c>
       <c r="K218" t="s">
@@ -12667,7 +12688,7 @@
         <f t="shared" si="7"/>
         <v>*公司</v>
       </c>
-      <c r="J220" s="4">
+      <c r="J220" s="11">
         <v>8</v>
       </c>
       <c r="K220" t="s">
@@ -12701,7 +12722,7 @@
         <f t="shared" si="7"/>
         <v>康普*公司</v>
       </c>
-      <c r="J221" s="4">
+      <c r="J221" s="11">
         <v>8</v>
       </c>
       <c r="K221" t="s">
@@ -12735,7 +12756,7 @@
         <f t="shared" si="7"/>
         <v>臺鐵*公司</v>
       </c>
-      <c r="J222" s="4">
+      <c r="J222" s="11">
         <v>8</v>
       </c>
       <c r="K222" t="s">
@@ -12769,7 +12790,7 @@
         <f>LEFT(D223,2)&amp;"*公司"</f>
         <v>美商*公司</v>
       </c>
-      <c r="J223" s="4">
+      <c r="J223" s="11">
         <v>8</v>
       </c>
       <c r="K223" t="s">
@@ -12800,7 +12821,7 @@
         <f t="shared" si="7"/>
         <v>*公司</v>
       </c>
-      <c r="J224" s="4">
+      <c r="J224" s="11">
         <v>9</v>
       </c>
       <c r="K224" t="s">
@@ -12834,7 +12855,7 @@
         <f t="shared" si="7"/>
         <v>大笠*公司</v>
       </c>
-      <c r="J225" s="4">
+      <c r="J225" s="11">
         <v>9</v>
       </c>
       <c r="K225" t="s">
@@ -12868,7 +12889,7 @@
         <f t="shared" si="7"/>
         <v>味全*公司</v>
       </c>
-      <c r="J226" s="4">
+      <c r="J226" s="11">
         <v>9</v>
       </c>
       <c r="K226" t="s">
@@ -12902,7 +12923,7 @@
         <f t="shared" si="7"/>
         <v>味全*公司</v>
       </c>
-      <c r="J227" s="4">
+      <c r="J227" s="11">
         <v>9</v>
       </c>
       <c r="K227" t="s">
@@ -12929,15 +12950,15 @@
         <v>14</v>
       </c>
       <c r="H228" t="str">
-        <f>REPLACE(C228,LEN(C228)-1,1,"O")</f>
+        <f t="shared" ref="H228:H233" si="8">REPLACE(C228,LEN(C228)-1,1,"O")</f>
         <v>賴O平</v>
       </c>
       <c r="I228" t="str">
-        <f>LEFT(D228,2)&amp;"*公司"</f>
+        <f t="shared" ref="I228:I233" si="9">LEFT(D228,2)&amp;"*公司"</f>
         <v>微笑*公司</v>
       </c>
-      <c r="J228" s="4">
-        <v>10</v>
+      <c r="J228" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="K228" t="s">
         <v>693</v>
@@ -12966,11 +12987,11 @@
         <v>704</v>
       </c>
       <c r="H229" t="str">
-        <f>REPLACE(C229,LEN(C229)-1,1,"O")</f>
+        <f t="shared" si="8"/>
         <v>周O良</v>
       </c>
       <c r="I229" t="str">
-        <f>LEFT(D229,2)&amp;"*公司"</f>
+        <f t="shared" si="9"/>
         <v>台灣*公司</v>
       </c>
       <c r="J229" s="4">
@@ -13000,15 +13021,15 @@
         <v>678</v>
       </c>
       <c r="H230" t="str">
-        <f>REPLACE(C230,LEN(C230)-1,1,"O")</f>
+        <f t="shared" si="8"/>
         <v>謝O祥</v>
       </c>
       <c r="I230" t="str">
-        <f>LEFT(D230,2)&amp;"*公司"</f>
+        <f t="shared" si="9"/>
         <v>中國*公司</v>
       </c>
-      <c r="J230" s="4">
-        <v>10</v>
+      <c r="J230" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="K230" t="s">
         <v>693</v>
@@ -13037,15 +13058,15 @@
         <v>701</v>
       </c>
       <c r="H231" t="str">
-        <f>REPLACE(C231,LEN(C231)-1,1,"O")</f>
+        <f t="shared" si="8"/>
         <v>陳O琪</v>
       </c>
       <c r="I231" t="str">
-        <f>LEFT(D231,2)&amp;"*公司"</f>
+        <f t="shared" si="9"/>
         <v>利樂*公司</v>
       </c>
-      <c r="J231" s="4">
-        <v>10</v>
+      <c r="J231" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="K231" t="s">
         <v>693</v>
@@ -13074,15 +13095,15 @@
         <v>701</v>
       </c>
       <c r="H232" t="str">
-        <f>REPLACE(C232,LEN(C232)-1,1,"O")</f>
+        <f t="shared" si="8"/>
         <v>黃O如</v>
       </c>
       <c r="I232" t="str">
-        <f>LEFT(D232,2)&amp;"*公司"</f>
+        <f t="shared" si="9"/>
         <v>華新*公司</v>
       </c>
-      <c r="J232" s="4">
-        <v>10</v>
+      <c r="J232" s="11" t="s">
+        <v>707</v>
       </c>
       <c r="K232" t="s">
         <v>693</v>
@@ -13090,6 +13111,58 @@
       <c r="L232" t="s">
         <v>696</v>
       </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+      <c r="C233" t="s">
+        <v>708</v>
+      </c>
+      <c r="D233" t="s">
+        <v>705</v>
+      </c>
+      <c r="E233" t="s">
+        <v>706</v>
+      </c>
+      <c r="F233" t="s">
+        <v>677</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H233" t="str">
+        <f t="shared" si="8"/>
+        <v>顏O和</v>
+      </c>
+      <c r="I233" t="str">
+        <f t="shared" si="9"/>
+        <v>林同*公司</v>
+      </c>
+      <c r="J233" s="11">
+        <v>5</v>
+      </c>
+      <c r="K233" t="s">
+        <v>159</v>
+      </c>
+      <c r="L233" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="J234" s="11"/>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="J235" s="11"/>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="J236" s="11"/>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="J237" s="11"/>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="J238" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L232" xr:uid="{B2A5B2DA-4C7B-4884-A7B1-800F33555119}">
@@ -13122,11 +13195,11 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
